--- a/PRODUTOS/Bebidas/Bebidas - Energeticos e isotonicos.xlsx
+++ b/PRODUTOS/Bebidas/Bebidas - Energeticos e isotonicos.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E81"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,6 +447,11 @@
           <t>Imagem</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>EAN</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -461,17 +466,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Agua De Coco Kero Coco 1l</t>
+          <t>Água De Coco Kero Coco 200ml</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>R$ 14,99</t>
+          <t>R$ 3,99</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f1c6170e-9858-4b4c-9486-a28e456e81d3.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b270ce0d-bfc5-42b7-bd70-87366fd806d0.jpg</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7896016601972</t>
         </is>
       </c>
     </row>
@@ -488,17 +498,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Água De Coco Quadrado 1lt</t>
+          <t>Isôtonico Gatorade Sabor Frutas Cítricas 500ml</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>R$ 9,99</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/58f2ea5b-3151-4af4-aef4-14191198c8c5.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e566c8a8-09b9-4ba2-9437-671eaafa7e30.jpg</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7892840808013</t>
         </is>
       </c>
     </row>
@@ -515,17 +530,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Energético Red Bull Lata 250ml</t>
+          <t>Isôtonico Gatorade 500ml Uva</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>R$ 9,99</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/eee131d4-b617-419b-9520-baf0f545af3e.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e75ea843-ad33-4bf5-9267-8d35bfaad85e.jpg</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7892840822019</t>
         </is>
       </c>
     </row>
@@ -542,17 +562,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Energético Monster Energy Lata 473ml</t>
+          <t>Isôtonico Gatorade Sabor Maracujá 500ml</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>R$ 9,99</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c2d966a0-afe5-4af5-aca1-4ac4e9df29cf.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f7983dfc-7704-45ff-987f-9ddcbcb1d56a.jpg</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7892840822019</t>
         </is>
       </c>
     </row>
@@ -569,17 +594,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Água De Coco Quadrado 200ml</t>
+          <t>Isôtonico Gatorade 500ml Morango E Maracuja</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>R$ 2,99</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/62743f72-43cc-4828-a3ad-5efc8f7ee1dc.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/750f1867-b089-4803-bb77-80b1f4650b4b.jpg</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7892840822019</t>
         </is>
       </c>
     </row>
@@ -596,17 +626,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Água De Coco Kero Coco 200ml</t>
+          <t>Isôtonico Gatorade Sabor Laranja 500ml</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>R$ 3,99</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b270ce0d-bfc5-42b7-bd70-87366fd806d0.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/17f5f0cc-deb3-4213-9fb1-2a3ae1e87577.jpg</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7894900503029</t>
         </is>
       </c>
     </row>
@@ -623,17 +658,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Água De Coco Ducoco 1l</t>
+          <t>Bebida Guaraná E Açaí Guaraviton 500ml</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>R$ 12,99</t>
+          <t>R$ 2,99</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/959a7c98-b778-4f45-9d45-c7011106d235.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8a1af71a-b4f0-4f83-9411-421e8d5c5c3b.jpg</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7898923217208</t>
         </is>
       </c>
     </row>
@@ -650,17 +690,22 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Água De Coco Natural Oq 1lt</t>
+          <t>Guaraviton 500ml Catuaba</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>R$ 14,99</t>
+          <t>R$ 2,99</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/15d69a37-4f6b-4147-bd52-56b3bf059a56.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/de4ae0d9-d3a8-497f-8199-f876a5f957f8.jpg</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7898923217215</t>
         </is>
       </c>
     </row>
@@ -677,17 +722,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Energético Monster Juice Mango Loco Lata 473ml</t>
+          <t>Guaraviton 500ml Zero Ginseng</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>R$ 9,99</t>
+          <t>R$ 2,99</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/312759dd-1d4a-4b09-9ccd-226e2d3fda7b.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/edb97174-9439-4398-93f1-29559f590660.jpg</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7896326100257</t>
         </is>
       </c>
     </row>
@@ -704,17 +754,22 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Energetico Monster 473ml Energy Zero Açucar</t>
+          <t>Agua De Coco Kero Coco 1l</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>R$ 9,99</t>
+          <t>R$ 14,99</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/eba258d8-7f17-4f64-a682-3eb9a1767299.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f1c6170e-9858-4b4c-9486-a28e456e81d3.jpg</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7898942775604</t>
         </is>
       </c>
     </row>
@@ -731,17 +786,22 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Energético Monster Ultra Lata 473ml</t>
+          <t>Água De Coco Ducoco 200ml</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>R$ 9,99</t>
+          <t>R$ 3,99</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3d144eb4-af4b-4214-bc35-593ef94142bc.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a267d91e-9ac4-46e0-9fa6-b779fd912534.jpg</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7896016601972</t>
         </is>
       </c>
     </row>
@@ -758,17 +818,22 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Água De Coco Ducoco 200ml</t>
+          <t>Água De Coco Ducoco 1l</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>R$ 3,99</t>
+          <t>R$ 12,99</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a267d91e-9ac4-46e0-9fa6-b779fd912534.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/959a7c98-b778-4f45-9d45-c7011106d235.jpg</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7896016601972</t>
         </is>
       </c>
     </row>
@@ -785,17 +850,22 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Isotônico Powerade Pro Uva 500ml</t>
+          <t>Energetico Vibe Drink 2l</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 10,99</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e8f0ee68-c1d8-4268-82e3-b8efa78815f5.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3aee8de9-8c3a-4c12-8475-960f025762b8.jpg</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7899914200629</t>
         </is>
       </c>
     </row>
@@ -812,17 +882,22 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Energetico Red Bull Lt 250ml Tropical</t>
+          <t>Energético Tnt Original Lata 473ml</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>R$ 9,99</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7a04b40d-d273-45ef-9a34-8e23225d6928.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/af21b0be-7e08-4072-b42c-17a2add54a93.jpg</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7897395031626</t>
         </is>
       </c>
     </row>
@@ -839,17 +914,22 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Isôtonico Gatorade Sabor Maracujá 500ml</t>
+          <t>Energetico Magnetico 2l</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 9,99</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f7983dfc-7704-45ff-987f-9ddcbcb1d56a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/11510036-3ad8-4731-a4d8-9ad3f0e22d1f.jpg</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7898377661657</t>
         </is>
       </c>
     </row>
@@ -866,17 +946,22 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Isôtonico Gatorade Sabor Limão 500ml</t>
+          <t>Energetico Vibe Drink 2l Melanci</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 10,99</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f358af77-a911-4bb0-8c97-758ab4389058.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bc0cc894-67ec-4a3b-a79e-1059a7e57843.jpg</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7899914200629</t>
         </is>
       </c>
     </row>
@@ -893,17 +978,22 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Energético Red Bull Summer Edition Melancia Lata 250ml</t>
+          <t>Água De Coco Natural Oq 1lt</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>R$ 9,99</t>
+          <t>R$ 14,99</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/14903667-d8ea-4758-939c-84d32c72d836.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/15d69a37-4f6b-4147-bd52-56b3bf059a56.jpg</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7898942775604</t>
         </is>
       </c>
     </row>
@@ -920,17 +1010,22 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Isôtonico Gatorade 500ml Uva</t>
+          <t>Energético Tnt Pink Lemonade Lata 473ml</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e75ea843-ad33-4bf5-9267-8d35bfaad85e.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6e96b464-46f3-4502-bb93-a49f5dd7e43f.jpg</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7898377662241</t>
         </is>
       </c>
     </row>
@@ -947,17 +1042,22 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Isôtonico Gatorade 500ml Morango E Maracuja</t>
+          <t>Água De Coco Quadrado 1lt</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 9,99</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/750f1867-b089-4803-bb77-80b1f4650b4b.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/58f2ea5b-3151-4af4-aef4-14191198c8c5.jpg</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7898641871300</t>
         </is>
       </c>
     </row>
@@ -974,17 +1074,22 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Isôtonico Gatorade Sabor Frutas Cítricas 500ml</t>
+          <t>Água De Coco Coco Quadrado Maracujá 1lt</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 9,99</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e566c8a8-09b9-4ba2-9437-671eaafa7e30.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/322df5ef-b310-45e4-8e63-314d0ffdb126.jpg</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7898641871300</t>
         </is>
       </c>
     </row>
@@ -1001,17 +1106,22 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Isôtonico Gatorade Sabor Laranja 500ml</t>
+          <t>Água De Coco Coco Quadrado Melância 1lt</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 9,99</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/17f5f0cc-deb3-4213-9fb1-2a3ae1e87577.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8aafe37c-01ce-42d7-8bca-8721d212cc36.jpg</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7898641871324</t>
         </is>
       </c>
     </row>
@@ -1028,7 +1138,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Energético Ultra Fiesta Monster 473ml Mango Zero</t>
+          <t>Água De Coco Coco Quadrado Morango 1lt</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1038,7 +1148,12 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3a1c6875-8d4c-4173-961b-0c031cfb9146.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2bc70ca3-7115-4bc1-a057-bc1060fea56d.jpg</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7898641871317</t>
         </is>
       </c>
     </row>
@@ -1055,17 +1170,22 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Energético Red Bull Sugar Free Lata 250ml</t>
+          <t>Isotonico Powerade 500ml Frutas Tropicais</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>R$ 9,99</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e3d6571e-16f4-4a17-94ef-f1107bc95450.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c143a9ec-e985-4420-aba5-ba48105a3246.jpg</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7894900508017</t>
         </is>
       </c>
     </row>
@@ -1082,17 +1202,22 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Isôtonico Gatorade 500ml Tangerina</t>
+          <t>Energetico Vibe Drink 2l Laranja/tang</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 10,99</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ec40832a-7943-4008-b12d-530946db0dce.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2a9ac5fb-1ad6-4b20-bc0d-141382e286ce.jpg</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7899914200445</t>
         </is>
       </c>
     </row>
@@ -1109,17 +1234,22 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Isotonico Powerade 500ml Laranja</t>
+          <t>Energetico Vibe Energy 473ml Melancia Lata</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1df2908d-f57a-42d6-a66e-df0ee4517663.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/dd17920c-b355-4149-ad00-c2a2270ea95b.jpg</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7899914200469</t>
         </is>
       </c>
     </row>
@@ -1136,17 +1266,22 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Isotonico Powerade 500ml Frutas Tropicais</t>
+          <t>Energetico Vibe Energy 473ml Tropical Lt</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c143a9ec-e985-4420-aba5-ba48105a3246.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7bc399b5-4e18-47fb-9f32-4af31a2e7ad5.jpg</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7897395031626</t>
         </is>
       </c>
     </row>
@@ -1163,17 +1298,22 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Bebida Guaraná E Açaí Guaraviton 500ml</t>
+          <t>Energetico Tnt 473ml Açaí Com Guarana Zero Açucar</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>R$ 2,99</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8a1af71a-b4f0-4f83-9411-421e8d5c5c3b.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/88ca8b0e-ca2a-4d3d-b365-7fcb3ce836c7.jpg</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7897395031626</t>
         </is>
       </c>
     </row>
@@ -1190,17 +1330,22 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Água De Coco Quadrado Maracujá 200ml</t>
+          <t>Energetico Tnt 473ml Maça Verde Ero Açucar</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>R$ 2,49</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0fc9f19c-1236-4fe1-b6ed-83c65fae5d8d.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/30ac1676-5484-48a1-930f-18905784da8d.jpg</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7897395031626</t>
         </is>
       </c>
     </row>
@@ -1217,17 +1362,22 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Isotônico Powerade Mountain Blast 500ml</t>
+          <t>Energetico Tnt 473ml Tangerina Zero Açucar</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ea2ed5ae-dd4a-459e-8d1c-90324a15194e.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c1c71f4a-ecfa-4045-b89b-83ae69e66328.jpg</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7897395031626</t>
         </is>
       </c>
     </row>
@@ -1244,17 +1394,22 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Energético Red Bull Summer Morango E Pêssego Lata 250ml</t>
+          <t>Energetico Tnt 473ml Juice Mango</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>R$ 9,99</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/11cb1af7-c6a0-4c02-87e8-f6bd0e587f53.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d8c0991e-f718-4022-a343-0ebead6a5668.jpg</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>7897395001681</t>
         </is>
       </c>
     </row>
@@ -1271,7 +1426,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Energetico Monster 473ml Ultra Peachyn Keen Pessego</t>
+          <t>Energetico Magneto 2 Litros Frutas Tropicais</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1281,7 +1436,12 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f7b28cdd-0801-4620-b610-92516641e908.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b3c6a28d-89bd-4d66-b958-2d56daa70c8c.jpg</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>7897395002022</t>
         </is>
       </c>
     </row>
@@ -1298,17 +1458,22 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Água De Coco Quadrado Melância 200ml</t>
+          <t>Energético Magneto 2 Litros Melancia</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>R$ 2,49</t>
+          <t>R$ 9,99</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/059c35de-edee-44ae-84e7-40ec7cc62aaf.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/82414a2c-942d-43f1-866c-f6eece967664.jpg</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>7897395002046</t>
         </is>
       </c>
     </row>
@@ -1325,17 +1490,22 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Água De Coco Coco Quadrado Maracujá 1lt</t>
+          <t>Isotõnico Zero Gatorade 350ml Frutas Silvestres</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>R$ 9,99</t>
+          <t>R$ 4,49</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/322df5ef-b310-45e4-8e63-314d0ffdb126.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4a40045d-f817-4c6c-ac8b-0e8064eab6ee.jpg</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>7892840808013</t>
         </is>
       </c>
     </row>
@@ -1352,17 +1522,22 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Água De Coco Quadrado Morango 200ml</t>
+          <t>Energético Ultra Fiesta Monster 473ml Mango Zero</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>R$ 2,49</t>
+          <t>R$ 9,99</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/331c3fff-fb62-4e47-b7be-d79d6f93a7f2.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3a1c6875-8d4c-4173-961b-0c031cfb9146.jpg</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>7897395031626</t>
         </is>
       </c>
     </row>
@@ -1379,17 +1554,22 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Guaraviton 500ml Zero Ginseng</t>
+          <t>Energético Monster Lata 473ml Rio Punch</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>R$ 2,99</t>
+          <t>R$ 9,99</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/edb97174-9439-4398-93f1-29559f590660.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/06a613a4-30c8-440f-93cd-7f8b051aad99.jpg</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>7897395031626</t>
         </is>
       </c>
     </row>
@@ -1406,17 +1586,22 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Energetico Vibe Drink 2l</t>
+          <t>Isotônico Powerade 500ml Maçã Verde</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>R$ 10,99</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3aee8de9-8c3a-4c12-8475-960f025762b8.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/60dfa20c-4434-419a-97e4-fd50e58159cc.jpg</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>7894900509601</t>
         </is>
       </c>
     </row>
@@ -1433,17 +1618,22 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Água De Coco Coco Quadrado Melância 1lt</t>
+          <t>Isotônico Sorox 550ml Frutas Vermelhas Zero Açúcar</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>R$ 9,99</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8aafe37c-01ce-42d7-8bca-8721d212cc36.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f0d7af1a-c998-4cc5-86ff-30e26d68673a.jpg</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>7898636193516</t>
         </is>
       </c>
     </row>
@@ -1460,17 +1650,22 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Energético Monster 473ml Pipeline Punch</t>
+          <t>Isotônico Sorox 550ml Limão Zero Açúcar</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>R$ 9,99</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2290b823-3122-4777-b699-76d99db946ef.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/de955578-ca7b-4483-a658-5cc957ebd2ef.jpg</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>7898636193493</t>
         </is>
       </c>
     </row>
@@ -1487,17 +1682,22 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Isotõnico Zero Gatorade 350ml Frutas Silvestres</t>
+          <t>Isotônico Sorox 550ml Uva Zero Açúcar</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>R$ 4,49</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4a40045d-f817-4c6c-ac8b-0e8064eab6ee.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2cbc55cd-42f8-49fa-a850-ed10d9ee0db0.jpg</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>7898636193516</t>
         </is>
       </c>
     </row>
@@ -1514,17 +1714,22 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Água De Coco Coco Quadrado Morango 1lt</t>
+          <t>Isotônico Powerade 500ml Mountain Blast Zero</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>R$ 9,99</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2bc70ca3-7115-4bc1-a057-bc1060fea56d.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fa495be5-1058-409c-bd72-2c8245688b7c.jpg</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>7894900503029</t>
         </is>
       </c>
     </row>
@@ -1541,7 +1746,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Energético Monster Juice Pacific Punch Lata 473ml</t>
+          <t>Energético Monster Ultra Lata 473ml</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1551,7 +1756,12 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/126f7731-2827-4c63-8161-ac98b56d40a0.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3d144eb4-af4b-4214-bc35-593ef94142bc.jpg</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>7897395031626</t>
         </is>
       </c>
     </row>
@@ -1568,17 +1778,22 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Energetico Vibe Energy 473ml Melancia Lata</t>
+          <t>Energético Monster Juice Mango Loco Lata 473ml</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 9,99</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/dd17920c-b355-4149-ad00-c2a2270ea95b.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/312759dd-1d4a-4b09-9ccd-226e2d3fda7b.jpg</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>7897395001681</t>
         </is>
       </c>
     </row>
@@ -1595,17 +1810,22 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Isotônico Powerade 500ml Maçã Verde</t>
+          <t>Energetico Monster 473ml Energy Zero Açucar</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 9,99</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/60dfa20c-4434-419a-97e4-fd50e58159cc.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/eba258d8-7f17-4f64-a682-3eb9a1767299.jpg</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>7898938890076</t>
         </is>
       </c>
     </row>
@@ -1622,17 +1842,22 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Energetico Red Bull Lt 250ml Summer Melao/maracuja</t>
+          <t>Isotônico Powerade Pro Uva 500ml</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>R$ 9,99</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f81a007c-b4bd-4b83-af3f-22e51c799300.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e8f0ee68-c1d8-4268-82e3-b8efa78815f5.jpg</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>7894900508017</t>
         </is>
       </c>
     </row>
@@ -1649,17 +1874,22 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Energ Red Bull Lt 250ml S/acucar Frutas Verm</t>
+          <t>Isotônico Powerade Mountain Blast 500ml</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>R$ 9,99</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/63f80b14-a700-48f1-812a-cdc2632dbc5a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ea2ed5ae-dd4a-459e-8d1c-90324a15194e.jpg</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>7894900504019</t>
         </is>
       </c>
     </row>
@@ -1676,7 +1906,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Energetico Energy Monster 473ml Tea Lemon</t>
+          <t>Energético Monster Energy Lata 473ml</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1686,7 +1916,12 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/106cc77d-6b7e-4a08-af3b-af40d43fe0cd.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c2d966a0-afe5-4af5-aca1-4ac4e9df29cf.jpg</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>7897395031626</t>
         </is>
       </c>
     </row>
@@ -1703,17 +1938,22 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Energético Tnt Pink Lemonade Lata 473ml</t>
+          <t>Isotonico Powerade 500ml Laranja</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6e96b464-46f3-4502-bb93-a49f5dd7e43f.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1df2908d-f57a-42d6-a66e-df0ee4517663.jpg</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>7894900503029</t>
         </is>
       </c>
     </row>
@@ -1730,881 +1970,22 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Energético Tnt Original Lata 269ml</t>
+          <t>Isotônico Powerade 500ml Limão</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>R$ 6,49</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/db1f0e80-92b7-4406-83a1-e0739656c7f0.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Energeticos e isotonicos</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>Energético Tnt Original Lata 473ml</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>R$ 8,99</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/af21b0be-7e08-4072-b42c-17a2add54a93.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Energeticos e isotonicos</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>Energetico Vibe Energy 473ml Tropical Lt</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>R$ 5,99</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7bc399b5-4e18-47fb-9f32-4af31a2e7ad5.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Energeticos e isotonicos</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>Isotônico Powerade 500ml Limão</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>R$ 4,99</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
           <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/069f7d38-c0ba-11e7-a6aa-063e6e4e9f3a.jpg</t>
         </is>
       </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>Energeticos e isotonicos</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>Energético Monster Lata 473ml Rio Punch</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>R$ 9,99</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/06a613a4-30c8-440f-93cd-7f8b051aad99.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>Energeticos e isotonicos</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>Energetico Vibe Drink 2l Melanci</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>R$ 10,99</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bc0cc894-67ec-4a3b-a79e-1059a7e57843.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>Energeticos e isotonicos</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>Energetico Red Bull Lt 250 Winter Cereja Ftas</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>R$ 9,99</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2d57c92d-ba1e-4f8a-b586-ca8fb7ac1ff5.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>Energeticos e isotonicos</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>Guaraviton 500ml Catuaba</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>R$ 2,99</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/de4ae0d9-d3a8-497f-8199-f876a5f957f8.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>Energeticos e isotonicos</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>Energetico Magnetico 2l</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>R$ 9,99</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/11510036-3ad8-4731-a4d8-9ad3f0e22d1f.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>Energeticos e isotonicos</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>Energetico Vibe Drink 2l Maça Verde</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>R$ 10,99</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f0a4c4b6-b6b5-4225-9cbd-214c12a7dc96.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>Energeticos e isotonicos</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>Energetico Vibe Drink 2l Pessego/morango</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>R$ 10,99</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/301ead37-24fc-489c-a33c-c92cae303485.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>Energeticos e isotonicos</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>Energetico Tnt 473ml Açaí Com Guarana Zero Açucar</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>R$ 8,99</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/88ca8b0e-ca2a-4d3d-b365-7fcb3ce836c7.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>Energeticos e isotonicos</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>Energetico Tnt 473ml Maça Verde Ero Açucar</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>R$ 8,99</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/30ac1676-5484-48a1-930f-18905784da8d.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>Energeticos e isotonicos</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>Energetico Tnt 473ml Tangerina Zero Açucar</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>R$ 8,99</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c1c71f4a-ecfa-4045-b89b-83ae69e66328.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>Energeticos e isotonicos</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>Energético Red Bull Lata 250ml Zero</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>R$ 9,99</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c9595963-c9d2-4a64-86a2-f1a0c155052e.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>Energeticos e isotonicos</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>Energetico Vibe Drink 2l Tropical</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>R$ 10,99</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1a6468d7-dcdb-44e5-825f-119394f426bc.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>Energeticos e isotonicos</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>Energetico Vibe Lt 269ml</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>R$ 5,99</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cb6b0e25-34a7-4b22-9964-99a1bb3caff2.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>Energeticos e isotonicos</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>Energético Magneto 2 Litros Melancia</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>R$ 9,99</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/82414a2c-942d-43f1-866c-f6eece967664.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>Energeticos e isotonicos</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>Energetico Red Bull Sugar Free Lt250ml Pomelo</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>R$ 9,99</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a0255f0b-6aa4-40d6-af1b-fd194a7d24c2.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>Energeticos e isotonicos</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>Energetico Red Bull Lata 355ml</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>R$ 13,49</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bff82f34-8e3f-44c4-94ea-a92d6abd10e7.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>Energeticos e isotonicos</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>Suplemento Alimentar Reign Lata 473ml Laranja</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>R$ 9,99</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/01f520dc-8a85-403c-a031-ef92b42257c7.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>Energeticos e isotonicos</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>Suplemento Alimentar Reign Lata 473ml Limão</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>R$ 9,99</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/02263153-868b-4402-bcf2-5b2f0e65a54b.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>Energeticos e isotonicos</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>Energetico Magneto 2 Litros Frutas Tropicais</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>R$ 9,99</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b3c6a28d-89bd-4d66-b958-2d56daa70c8c.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>Energeticos e isotonicos</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>Energetico Tnt 473ml Juice Mango</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>R$ 8,99</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d8c0991e-f718-4022-a343-0ebead6a5668.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>Energeticos e isotonicos</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>Energetico Vibe Drink 2l Laranja/tang</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>R$ 10,99</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2a9ac5fb-1ad6-4b20-bc0d-141382e286ce.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>Energeticos e isotonicos</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>Energ Red Bull 473ml</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>R$ 16,99</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f23ec78c-033a-4e8c-85e1-5a244cb2dd2e.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>Energeticos e isotonicos</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>Isotônico Powerade 500ml Mountain Blast Zero</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>R$ 4,99</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fa495be5-1058-409c-bd72-2c8245688b7c.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>Energeticos e isotonicos</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>Energico Red Bull Lt 250ml Nectarina</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>R$ 9,99</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f9cf43c0-3e05-49fd-8b15-7012a2409768.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>Energeticos e isotonicos</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>Isotônico Sorox 550ml Frutas Vermelhas Zero Açúcar</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>R$ 8,99</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f0d7af1a-c998-4cc5-86ff-30e26d68673a.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>Energeticos e isotonicos</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>Isotônico Sorox 550ml Limão Zero Açúcar</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>R$ 8,99</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/de955578-ca7b-4483-a658-5cc957ebd2ef.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>Energeticos e isotonicos</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>Isotônico Sorox 550ml Uva Zero Açúcar</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>R$ 8,99</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2cbc55cd-42f8-49fa-a850-ed10d9ee0db0.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>Energeticos e isotonicos</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>Energetico Red Bull Zero Lt 250ml Nectarina</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>R$ 9,99</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3b7acb70-6976-414a-a6ff-38c945f2982e.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>Energeticos e isotonicos</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>Isotônico Sorox 550ml Abacaxi Com Hortelã Zero Açúcar</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>R$ 8,99</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a78b1b10-565b-4704-ae13-d6a045fd1efa.jpg</t>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>7894900508017</t>
         </is>
       </c>
     </row>
